--- a/Documenten/Burn-down charts/Burn-Down Sprint 1.xlsx
+++ b/Documenten/Burn-down charts/Burn-Down Sprint 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rogier\Documenten\INFPRJ 4-2\INFPRJ-004\Documenten\Burn-down charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A8CB448-90BF-4FAF-A91C-430654DCB2A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC4803-B9A6-4A9C-AB49-A1572B67E423}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>Projectnaam</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>User story #</t>
   </si>
@@ -42,9 +39,6 @@
     <t xml:space="preserve">Ideal </t>
   </si>
   <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
     <t>16-05 - Remaining Hours</t>
   </si>
   <si>
@@ -57,12 +51,6 @@
     <t>21-05 Remaining Hours</t>
   </si>
   <si>
-    <t xml:space="preserve">User story </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work item </t>
-  </si>
-  <si>
     <t>User story 1</t>
   </si>
   <si>
@@ -73,6 +61,12 @@
   </si>
   <si>
     <t>Work item 2</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>QuickMath</t>
   </si>
 </sst>
 </file>
@@ -768,7 +762,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,25 +775,25 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="4"/>
@@ -816,13 +810,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -853,10 +847,10 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -885,12 +879,8 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -910,12 +900,8 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -958,7 +944,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -987,7 +973,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <f>SUM(D2:D6)</f>
